--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Nabil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اندرو ايهاب جورج شاكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Andrew Ehab George Shaker</x:t>
   </x:si>
   <x:si>
     <x:t>4220114</x:t>
@@ -518,7 +527,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +827,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1165,7 +1174,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45919.6726004977</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4226414352</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1357,7 +1366,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1389,7 +1398,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1421,7 +1430,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1453,7 +1462,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1485,7 +1494,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1517,7 +1526,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1549,7 +1558,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1645,7 +1654,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1677,7 +1686,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1709,7 +1718,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1741,7 +1750,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1773,7 +1782,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1805,7 +1814,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1837,7 +1846,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1869,7 +1878,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1901,7 +1910,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1933,7 +1942,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1965,7 +1974,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1997,7 +2006,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2029,7 +2038,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2061,7 +2070,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2089,9 +2098,11 @@
       <x:c r="C39" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2114,14 +2125,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2144,16 +2155,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2234,6 +2243,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -2281,11 +2281,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Measurements (EPES307) Location : [18103]18103-30-الجيزة الرئيسي Time : Thursday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Measurements (EPES307) Location : [18201]18201-45-الجيزة الرئيسي Time : Thursday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Measurements (EPES307) Location : [18103]18103-30-الجيزة الرئيسي Time : Thursday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Measurements (EPES307) Location : [18201]18201-45-الجيزة الرئيسي Time : Thursday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Measurements (EPES307) Location : [18103]18103-30-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Electrical Measurements (EPES307) Location : [18201]18201-45-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد سامح محمد محمد الغريب ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Sameh Mohamed Mohamed Elghareeb</x:t>
   </x:si>
   <x:si>
     <x:t>1230146</x:t>
@@ -527,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -827,7 +836,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -918,7 +927,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4168418634</x:v>
+        <x:v>45922.7907542014</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -950,7 +959,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4176098727</x:v>
+        <x:v>45907.4168418634</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -982,7 +991,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4155262732</x:v>
+        <x:v>45907.4176098727</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4189025463</x:v>
+        <x:v>45907.4155262732</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4342207176</x:v>
+        <x:v>45907.4189025463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6671597569</x:v>
+        <x:v>45907.4342207176</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6646690972</x:v>
+        <x:v>45906.6671597569</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45906.6646690972</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45919.6726004977</x:v>
+        <x:v>45907.4150907755</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45919.6726004977</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4226414352</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1398,7 +1407,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1430,7 +1439,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1462,7 +1471,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1494,7 +1503,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1526,7 +1535,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1558,7 +1567,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1590,7 +1599,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1622,7 +1631,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1654,7 +1663,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1686,7 +1695,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1718,7 +1727,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1750,7 +1759,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1782,7 +1791,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1814,7 +1823,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1846,7 +1855,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1878,7 +1887,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1910,7 +1919,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1942,7 +1951,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1974,7 +1983,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2006,7 +2015,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2038,7 +2047,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2070,7 +2079,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2102,7 +2111,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2130,9 +2139,11 @@
       <x:c r="C40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2155,14 +2166,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2185,16 +2196,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2226,7 +2235,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2258,7 +2267,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2275,6 +2284,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -87,15 +87,6 @@
     <x:t>ahmed mohamed hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1220032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد شوقى التهامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Shawkey Eltohamyy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220161</x:t>
   </x:si>
   <x:si>
@@ -412,6 +403,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Amr Abdelrahman Elserwy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1220213</x:t>
@@ -1119,7 +1119,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6671597569</x:v>
+        <x:v>45906.6646690972</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1151,7 +1151,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6646690972</x:v>
+        <x:v>45907.4150907755</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1183,7 +1183,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4150907755</x:v>
+        <x:v>45919.6726004977</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1215,7 +1215,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45919.6726004977</x:v>
+        <x:v>45907.4226414352</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1247,7 +1247,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45907.4147799769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1279,7 +1279,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4147799769</x:v>
+        <x:v>45907.4151439005</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1311,7 +1311,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4151439005</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1343,7 +1343,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.414821956</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1375,7 +1375,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.414821956</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1407,7 +1407,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1439,7 +1439,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1471,7 +1471,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1503,7 +1503,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1535,7 +1535,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1567,7 +1567,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1599,7 +1599,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1631,7 +1631,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1663,7 +1663,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1695,7 +1695,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1727,7 +1727,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1759,7 +1759,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1791,7 +1791,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1823,7 +1823,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1855,7 +1855,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1887,7 +1887,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1919,7 +1919,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1951,7 +1951,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1983,7 +1983,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2015,7 +2015,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2047,7 +2047,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2079,7 +2079,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2111,7 +2111,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2139,11 +2139,9 @@
       <x:c r="C40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
+      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2166,14 +2164,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2196,14 +2194,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2235,7 +2235,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2267,7 +2267,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45927.4144628472</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>

--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Abdalluh Nasser fadel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن احمد ابراهيم عبدالرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABDELRAHMAN AHMED IBRAHIM ABDELRAHMAN</x:t>
   </x:si>
   <x:si>
     <x:t>4230153</x:t>
@@ -536,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -836,7 +845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -845,7 +854,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.400625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.050625000000004" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1215,7 +1224,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4226414352</x:v>
+        <x:v>45928.7033875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1791,7 +1800,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45929.055525463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1823,7 +1832,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1855,7 +1864,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1887,7 +1896,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1919,7 +1928,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1951,7 +1960,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1983,7 +1992,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2015,7 +2024,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2047,7 +2056,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2079,7 +2088,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2111,7 +2120,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2139,9 +2148,11 @@
       <x:c r="C40" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2164,14 +2175,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2194,16 +2205,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2235,7 +2244,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2267,7 +2276,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.4144628472</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2299,7 +2308,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45927.4144628472</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2316,6 +2325,38 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حنين الظافر مصطفى أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haneen ElZafer Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220049</x:t>
@@ -545,7 +554,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -845,7 +854,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1384,7 +1393,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45929.6012089468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1480,7 +1489,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1512,7 +1521,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1544,7 +1553,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1576,7 +1585,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1608,7 +1617,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1640,7 +1649,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1672,7 +1681,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1704,7 +1713,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1736,7 +1745,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1768,7 +1777,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1800,7 +1809,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.055525463</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1832,7 +1841,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45929.055525463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1864,7 +1873,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1896,7 +1905,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1928,7 +1937,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1960,7 +1969,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1992,7 +2001,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2024,7 +2033,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2056,7 +2065,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2088,7 +2097,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2120,7 +2129,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2152,7 +2161,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2180,9 +2189,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2205,14 +2216,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2235,16 +2246,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
+      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.4144628472</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45927.4144628472</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2357,6 +2366,38 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES307_Lecture-35423.xlsx
+++ b/downloaded_files/EPES307_Lecture-35423.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حنين الظافر مصطفى أحمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Haneen ElZafer Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220049</x:t>
@@ -554,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -854,7 +845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1393,7 +1384,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45929.6012089468</x:v>
+        <x:v>45907.4173934028</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4173934028</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1489,7 +1480,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.5338020486</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1521,7 +1512,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.5338020486</x:v>
+        <x:v>45906.6652097222</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1553,7 +1544,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652097222</x:v>
+        <x:v>45907.4166613426</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1585,7 +1576,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4166613426</x:v>
+        <x:v>45907.4152836806</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1617,7 +1608,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4152836806</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1649,7 +1640,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1681,7 +1672,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4151855671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1713,7 +1704,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4151855671</x:v>
+        <x:v>45907.4147188657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1745,7 +1736,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4147188657</x:v>
+        <x:v>45907.4658447917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1777,7 +1768,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4658447917</x:v>
+        <x:v>45907.4156379282</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1809,7 +1800,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4156379282</x:v>
+        <x:v>45929.055525463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1841,7 +1832,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.055525463</x:v>
+        <x:v>45907.4151101852</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1873,7 +1864,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4151101852</x:v>
+        <x:v>45918.5846238426</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1905,7 +1896,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45918.5846238426</x:v>
+        <x:v>45907.4171508912</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1937,7 +1928,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4171508912</x:v>
+        <x:v>45907.4172290162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1969,7 +1960,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4172290162</x:v>
+        <x:v>45912.7621351852</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2001,7 +1992,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.7621351852</x:v>
+        <x:v>45906.6646741551</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2033,7 +2024,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6646741551</x:v>
+        <x:v>45912.7627262384</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2065,7 +2056,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.7627262384</x:v>
+        <x:v>45907.4151167824</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2097,7 +2088,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.4151167824</x:v>
+        <x:v>45907.4146657407</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2129,7 +2120,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.4146657407</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2161,7 +2152,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4188804745</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2189,11 +2180,9 @@
       <x:c r="C41" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.4188804745</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2216,14 +2205,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>126</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45907.4155481482</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2246,14 +2235,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45907.4155481482</x:v>
+        <x:v>45907.4719599884</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2285,7 +2276,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4719599884</x:v>
+        <x:v>45906.6647042824</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2317,7 +2308,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6647042824</x:v>
+        <x:v>45927.4144628472</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2349,7 +2340,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4144628472</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2366,38 +2357,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
